--- a/jpcore-r4/hotfix/v110/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/hotfix/v110/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:52:42+00:00</t>
+    <t>2022-11-03T07:24:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
